--- a/jumpstart/metameta.xlsx
+++ b/jumpstart/metameta.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickohlenberg/src/jumpstart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickohlenberg/src/jumpstart/jumpstart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{231E545B-9607-0E47-9106-8530455C49F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F9F002-7E7F-C64F-A88C-2E972788A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="4280" windowWidth="27640" windowHeight="16940" xr2:uid="{17A214B1-8C09-2A44-82CB-BCF2101EEBF1}"/>
+    <workbookView xWindow="8380" yWindow="15260" windowWidth="37200" windowHeight="24540" xr2:uid="{17A214B1-8C09-2A44-82CB-BCF2101EEBF1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MetaData Structure" sheetId="1" r:id="rId1"/>
+    <sheet name="Lookup" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -89,61 +90,218 @@
     <t>CHARACTER_MAXIMUM_LENGTH</t>
   </si>
   <si>
-    <t>CHARACTER_OCTET_LENGTH</t>
-  </si>
-  <si>
-    <t>NUMERIC_PRECISION</t>
-  </si>
-  <si>
-    <t>NUMERIC_PRECISION_RADIX</t>
-  </si>
-  <si>
-    <t>NUMERIC_SCALE</t>
-  </si>
-  <si>
-    <t>DATETIME_PRECISION</t>
-  </si>
-  <si>
-    <t>CHARACTER_SET_CATALOG</t>
-  </si>
-  <si>
-    <t>CHARACTER_SET_SCHEMA</t>
-  </si>
-  <si>
-    <t>CHARACTER_SET_NAME</t>
-  </si>
-  <si>
-    <t>COLLATION_CATALOG</t>
-  </si>
-  <si>
-    <t>COLLATION_SCHEMA</t>
-  </si>
-  <si>
-    <t>COLLATION_NAME</t>
-  </si>
-  <si>
-    <t>DOMAIN_CATALOG</t>
-  </si>
-  <si>
-    <t>DOMAIN_SCHEMA</t>
-  </si>
-  <si>
-    <t>DOMAIN_NAME</t>
-  </si>
-  <si>
-    <t>public string $(colname) {get;set;}</t>
+    <t>A TitleCase representation of the table name.  Appears on the first row of the table.</t>
+  </si>
+  <si>
+    <t>1 or 0 indicating whether or not a table is a primary table.  Mapping tables and detail tables in master-detail relationships are not considered primary.  Table labels of primary tables appear as menu items.</t>
+  </si>
+  <si>
+    <t>A column name in "snake" style.  The first column of every table is "id", the primary key.  The primary key is BIGINT type.   Foreign keys are named as &lt;table_name&gt;_id and are also BIGINT.</t>
+  </si>
+  <si>
+    <t>Similar to table lable, a TitleCase, user-friendly column name.</t>
+  </si>
+  <si>
+    <t>rwk</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>Can be enum, parent, map, or rwk.  Enum refers to a databased list of specific values.  Parent refers to the master record in a 1:many master-detail relationship.  Map refers to a column that is one part of a many:many relationship.  Rwk indicates that a foreign key is actually part of a table real-world key and the RWK colums of the referenced table should be displayed.</t>
+  </si>
+  <si>
+    <t>Refers to the table name of the foreign table.  Used as the basis for the COLUMN_NAME.</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>firstnames</t>
+  </si>
+  <si>
+    <t>lastnames</t>
+  </si>
+  <si>
+    <t>emailAddresses</t>
+  </si>
+  <si>
+    <t>phoneNumbers</t>
+  </si>
+  <si>
+    <t>addresses</t>
+  </si>
+  <si>
+    <t>Can be "addresses", "companies", "emailAddresses", "firstnames", "lastnames", or "phoneNumbers".  Used to determine the test data used for test case generation.</t>
+  </si>
+  <si>
+    <t>Integer number that indicates column order.</t>
+  </si>
+  <si>
+    <t>A default value or function that returns a value.  Must be database specific.</t>
+  </si>
+  <si>
+    <t>Database name based on the input filename.</t>
+  </si>
+  <si>
+    <t>Schema name</t>
+  </si>
+  <si>
+    <t>Table name using "snake" naming style.  Table name will be converted to PascalCase for domain object generation.</t>
+  </si>
+  <si>
+    <t>A 1 or a 0 indicating whether or not a non-primary key column comprises a real-world key.  The generator will produce a unique index based on the real-world key columns.</t>
+  </si>
+  <si>
+    <t>Can be "YES" or "NO".</t>
+  </si>
+  <si>
+    <t>The MS SQL Server data type</t>
+  </si>
+  <si>
+    <t>The length of a varchar column.</t>
+  </si>
+  <si>
+    <t>Metadata Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>NUMERIC(18,4)</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Guid</t>
+  </si>
+  <si>
+    <t>byte[]</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>TIMESTAMPTZ</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>.NET Data Type</t>
+  </si>
+  <si>
+    <t>The POSTGRES data type.  Current supported types are BIGINT, VARCHAR, NUMERIC(18,4), TIMESTAMP, INTEGER, and DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,12 +321,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,428 +685,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7762C7-9780-FE4B-AE3C-5BD12F6D9DC8}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <f>A2</f>
-        <v>TABLE_CATALOG</v>
-      </c>
-      <c r="C2" t="str">
-        <f>SUBSTITUTE(C$1,"$(colname)", B2)</f>
-        <v>public string TABLE_CATALOG {get;set;}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B32" si="0">A3</f>
-        <v>TABLE_SCHEMA</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C32" si="1">SUBSTITUTE(C$1,"$(colname)", B3)</f>
-        <v>public string TABLE_SCHEMA {get;set;}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>TABLE_NAME</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>public string TABLE_NAME {get;set;}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>TABLE_LABEL</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>public string TABLE_LABEL {get;set;}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>PRIMARY_TABLE</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>public string PRIMARY_TABLE {get;set;}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>COLUMN_NAME</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>public string COLUMN_NAME {get;set;}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>COLUMN_LABEL</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>public string COLUMN_LABEL {get;set;}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>FK_TYPE</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>public string FK_TYPE {get;set;}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>FK_OBJECT</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>public string FK_OBJECT {get;set;}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>TEST_DATA_SET</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>public string TEST_DATA_SET {get;set;}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>ORDINAL_POSITION</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>public string ORDINAL_POSITION {get;set;}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>COLUMN_DEFAULT</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>public string COLUMN_DEFAULT {get;set;}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>RWK</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>public string RWK {get;set;}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>IS_NULLABLE</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>public string IS_NULLABLE {get;set;}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>DATA_TYPE</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>public string DATA_TYPE {get;set;}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B16" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>MSSQL_DATA_TYPE</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>public string MSSQL_DATA_TYPE {get;set;}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>CHARACTER_MAXIMUM_LENGTH</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>public string CHARACTER_MAXIMUM_LENGTH {get;set;}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>CHARACTER_OCTET_LENGTH</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>public string CHARACTER_OCTET_LENGTH {get;set;}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>NUMERIC_PRECISION</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>public string NUMERIC_PRECISION {get;set;}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>NUMERIC_PRECISION_RADIX</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>public string NUMERIC_PRECISION_RADIX {get;set;}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>NUMERIC_SCALE</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>public string NUMERIC_SCALE {get;set;}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>DATETIME_PRECISION</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>public string DATETIME_PRECISION {get;set;}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>CHARACTER_SET_CATALOG</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>public string CHARACTER_SET_CATALOG {get;set;}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>CHARACTER_SET_SCHEMA</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>public string CHARACTER_SET_SCHEMA {get;set;}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>CHARACTER_SET_NAME</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>public string CHARACTER_SET_NAME {get;set;}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>COLLATION_CATALOG</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>public string COLLATION_CATALOG {get;set;}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>COLLATION_SCHEMA</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>public string COLLATION_SCHEMA {get;set;}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>COLLATION_NAME</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>public string COLLATION_NAME {get;set;}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>DOMAIN_CATALOG</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>public string DOMAIN_CATALOG {get;set;}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>DOMAIN_SCHEMA</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>public string DOMAIN_SCHEMA {get;set;}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>DOMAIN_NAME</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>public string DOMAIN_NAME {get;set;}</v>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ABDC4B-EC08-8A43-A60C-80EE3A41121B}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C85">
+    <sortCondition ref="C2:C85"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jumpstart/metameta.xlsx
+++ b/jumpstart/metameta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickohlenberg/src/jumpstart/jumpstart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F9F002-7E7F-C64F-A88C-2E972788A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F755CECD-F705-8444-86C4-639F44DF100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="15260" windowWidth="37200" windowHeight="24540" xr2:uid="{17A214B1-8C09-2A44-82CB-BCF2101EEBF1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{17A214B1-8C09-2A44-82CB-BCF2101EEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData Structure" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -283,6 +283,27 @@
   </si>
   <si>
     <t>The POSTGRES data type.  Current supported types are BIGINT, VARCHAR, NUMERIC(18,4), TIMESTAMP, INTEGER, and DATE</t>
+  </si>
+  <si>
+    <t>Input Type</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>{"$dt", "$it"},</t>
   </si>
 </sst>
 </file>
@@ -313,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -336,11 +357,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -351,6 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7762C7-9780-FE4B-AE3C-5BD12F6D9DC8}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -849,10 +880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ABDC4B-EC08-8A43-A60C-80EE3A41121B}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,7 +896,7 @@
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -887,8 +918,17 @@
       <c r="I1" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -907,8 +947,18 @@
       <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="str">
+        <f>SUBSTITUTE(LOWER(SUBSTITUTE($N$1,"$dt", K2)), "$it",L2)</f>
+        <v>{"integer", "Number"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -927,8 +977,18 @@
       <c r="I3" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N20" si="0">SUBSTITUTE(LOWER(SUBSTITUTE($N$1,"$dt", K3)), "$it",L3)</f>
+        <v>{"bigint", "Number"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -947,8 +1007,18 @@
       <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"smallint", "Number"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -967,8 +1037,18 @@
       <c r="I5" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"serial", "Number"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
@@ -984,8 +1064,18 @@
       <c r="I6" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"bigserial", "Number"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1001,109 +1091,249 @@
       <c r="I7" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"boolean", "Radio"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"char", "Text"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"varchar", "Text"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"text", "TextArea"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"date", "Date"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"timestamp", "Date"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>{"timestamptz", "Date"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"real", "Number"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H15" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>{"double precision", "Number"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H16" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"numeric", "Number"},</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"json", "TextArea"},</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"uuid", "Text"},</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>{"bytea", "Text"},</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>{"xml", "Text"},</v>
       </c>
     </row>
   </sheetData>
@@ -1111,5 +1341,6 @@
     <sortCondition ref="C2:C85"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>